--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallisch\Nextcloud\Lehre\S4-SWEN2\Semester Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2A285-06BA-432F-887F-6C8865D9E6F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061EEC1E-D150-4882-AFB7-3B96BA9055CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7344" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -326,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,15 +345,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -379,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,43 +684,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -721,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -729,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -737,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -745,92 +752,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
@@ -841,383 +848,339 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="7">
+      <c r="B34" s="11"/>
+      <c r="C34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" spans="1:3" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B78"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>

--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-Tour_Planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061EEC1E-D150-4882-AFB7-3B96BA9055CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D4CF5-5594-405E-A1F8-4B5407DD7097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -350,6 +362,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -684,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +803,7 @@
         <v>54</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,6 +837,7 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -984,31 +999,38 @@
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
       <c r="C51" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1024,14 +1046,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
@@ -1047,15 +1069,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
       <c r="C59" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
@@ -1063,33 +1088,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
       <c r="C61" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
       <c r="C62" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
       <c r="C63" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
@@ -1111,10 +1148,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="6">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12">
         <v>1</v>
       </c>
     </row>

--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\Swen2-Tour_Planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D4CF5-5594-405E-A1F8-4B5407DD7097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AD612-99D7-4AF4-B764-BB7B79E17746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,12 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -698,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +831,7 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -1006,7 +1000,7 @@
       <c r="C49" s="6">
         <v>2</v>
       </c>
-      <c r="D49" s="13"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -1148,11 +1142,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12">
+      <c r="B69" s="13"/>
+      <c r="C69" s="6">
         <v>1</v>
       </c>
     </row>

--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AD612-99D7-4AF4-B764-BB7B79E17746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72312350-17FB-462C-A5B6-A8DB822A35D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -237,13 +237,16 @@
   </si>
   <si>
     <t>Tour Details show all tour attributes of a selected tour and also the map image</t>
+  </si>
+  <si>
+    <t>idk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +301,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00649C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00649C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,12 +346,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,13 +376,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -692,34 +763,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -727,11 +800,14 @@
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -740,7 +816,7 @@
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
     </row>
@@ -748,7 +824,7 @@
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
     </row>
@@ -756,7 +832,7 @@
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
     </row>
@@ -764,7 +840,7 @@
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
     </row>
@@ -772,7 +848,7 @@
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
     </row>
@@ -780,7 +856,7 @@
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
     </row>
@@ -788,7 +864,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
     </row>
@@ -796,7 +872,7 @@
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
     </row>
@@ -804,7 +880,7 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
     </row>
@@ -812,15 +888,15 @@
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
     </row>
@@ -828,16 +904,16 @@
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12"/>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -845,55 +921,67 @@
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+    </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="6">
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23">
         <v>1</v>
       </c>
     </row>
@@ -901,15 +989,15 @@
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="6">
+      <c r="B34" s="17"/>
+      <c r="C34" s="23">
         <v>2</v>
       </c>
     </row>
@@ -917,7 +1005,10 @@
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="6">
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="23">
         <v>1</v>
       </c>
     </row>
@@ -925,8 +1016,8 @@
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -937,7 +1028,10 @@
       <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="6">
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+      <c r="C39" s="23">
         <v>1</v>
       </c>
     </row>
@@ -945,14 +1039,17 @@
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="6">
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+      <c r="C41" s="23">
         <v>1</v>
       </c>
     </row>
@@ -960,21 +1057,24 @@
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="6">
+      <c r="B45" s="10">
+        <v>2</v>
+      </c>
+      <c r="C45" s="23">
         <v>2</v>
       </c>
     </row>
@@ -982,7 +1082,10 @@
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="6">
+      <c r="B46" s="10">
+        <v>2</v>
+      </c>
+      <c r="C46" s="23">
         <v>2</v>
       </c>
     </row>
@@ -990,26 +1093,27 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48"/>
-      <c r="C48"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" s="12"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="23">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1017,10 +1121,10 @@
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="6">
+      <c r="B51" s="10">
+        <v>2</v>
+      </c>
+      <c r="C51" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1028,7 +1132,10 @@
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="6">
+      <c r="B52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1036,7 +1143,8 @@
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="6">
+      <c r="B54" s="14"/>
+      <c r="C54" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1044,14 +1152,17 @@
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56"/>
-      <c r="C56"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="6">
+      <c r="B57" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1059,7 +1170,10 @@
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="6">
+      <c r="B58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1067,10 +1181,10 @@
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" s="6">
+      <c r="B59" s="10">
+        <v>2</v>
+      </c>
+      <c r="C59" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1078,7 +1192,10 @@
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="6">
+      <c r="B60" s="10">
+        <v>2</v>
+      </c>
+      <c r="C60" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1086,10 +1203,10 @@
       <c r="A61" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="1">
-        <v>2</v>
-      </c>
-      <c r="C61" s="6">
+      <c r="B61" s="14">
+        <v>2</v>
+      </c>
+      <c r="C61" s="23">
         <v>2</v>
       </c>
     </row>
@@ -1097,10 +1214,10 @@
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="14">
+        <v>1</v>
+      </c>
+      <c r="C62" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1108,10 +1225,10 @@
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
+      <c r="C63" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1119,10 +1236,10 @@
       <c r="A64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6">
+      <c r="B64" s="10">
+        <v>1</v>
+      </c>
+      <c r="C64" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1130,14 +1247,14 @@
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="24"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="23">
         <v>3</v>
       </c>
     </row>
@@ -1145,8 +1262,7 @@
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="6">
+      <c r="C69" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1154,14 +1270,14 @@
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="6"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="23"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1169,7 +1285,7 @@
       <c r="A72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1177,7 +1293,7 @@
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1185,7 +1301,7 @@
       <c r="A74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1309,7 @@
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -1201,7 +1317,7 @@
       <c r="A76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -1209,18 +1325,18 @@
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B78"/>
-      <c r="C78" s="6"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="18">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
         <v>0</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="25">
         <f>SUM(C27:C78)</f>
         <v>40</v>
       </c>

--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72312350-17FB-462C-A5B6-A8DB822A35D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224208BC-EE1C-476C-834A-6429768CD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Uses C# or Java</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>Tour Details show all tour attributes of a selected tour and also the map image</t>
-  </si>
-  <si>
-    <t>idk</t>
   </si>
 </sst>
 </file>
@@ -368,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -377,11 +374,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,10 +395,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,22 +407,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,23 +759,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -800,14 +796,14 @@
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
@@ -816,7 +812,7 @@
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -824,7 +820,7 @@
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
     </row>
@@ -832,7 +828,7 @@
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -840,7 +836,7 @@
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
     </row>
@@ -848,7 +844,7 @@
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -856,7 +852,7 @@
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
     </row>
@@ -864,7 +860,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
     </row>
@@ -872,7 +868,7 @@
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
     </row>
@@ -880,7 +876,7 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
     </row>
@@ -888,7 +884,7 @@
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
     </row>
@@ -896,7 +892,7 @@
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
     </row>
@@ -904,31 +900,30 @@
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21"/>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
+      <c r="B21" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -936,52 +931,52 @@
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20">
         <v>1</v>
       </c>
     </row>
@@ -989,15 +984,17 @@
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="23">
+      <c r="B34" s="23">
+        <v>2</v>
+      </c>
+      <c r="C34" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1005,10 +1002,10 @@
       <c r="A35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-      <c r="C35" s="23">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1016,8 +1013,8 @@
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1028,10 +1025,10 @@
       <c r="A39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="10">
-        <v>1</v>
-      </c>
-      <c r="C39" s="23">
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1039,17 +1036,17 @@
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="10">
-        <v>1</v>
-      </c>
-      <c r="C41" s="23">
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1057,24 +1054,24 @@
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="10">
-        <v>2</v>
-      </c>
-      <c r="C45" s="23">
+      <c r="B45" s="9">
+        <v>2</v>
+      </c>
+      <c r="C45" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1082,10 +1079,10 @@
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="10">
-        <v>2</v>
-      </c>
-      <c r="C46" s="23">
+      <c r="B46" s="9">
+        <v>2</v>
+      </c>
+      <c r="C46" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1093,153 +1090,156 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="23">
-        <v>2</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="16">
+        <v>1</v>
+      </c>
+      <c r="C49" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="10">
-        <v>1</v>
-      </c>
-      <c r="C50" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="9">
+        <v>1</v>
+      </c>
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="10">
-        <v>2</v>
-      </c>
-      <c r="C51" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
+        <v>2</v>
+      </c>
+      <c r="C54" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <v>2</v>
+      </c>
+      <c r="C57" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="24">
+        <v>0</v>
+      </c>
+      <c r="C58" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="10">
-        <v>2</v>
-      </c>
-      <c r="C59" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <v>2</v>
+      </c>
+      <c r="C59" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="10">
-        <v>2</v>
-      </c>
-      <c r="C60" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>2</v>
+      </c>
+      <c r="C60" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="14">
-        <v>2</v>
-      </c>
-      <c r="C61" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="13">
+        <v>2</v>
+      </c>
+      <c r="C61" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="14">
-        <v>1</v>
-      </c>
-      <c r="C62" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="10">
-        <v>1</v>
-      </c>
-      <c r="C63" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="10">
-        <v>1</v>
-      </c>
-      <c r="C64" s="23">
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+      <c r="C64" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1247,14 +1247,14 @@
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="24"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="21"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1270,14 +1270,14 @@
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="23"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       <c r="A72" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       <c r="A74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="20">
         <v>0.5</v>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="A76" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="20">
         <v>0.5</v>
       </c>
     </row>
@@ -1325,18 +1325,18 @@
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="20"/>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="17">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="25">
+        <v>29</v>
+      </c>
+      <c r="C80" s="22">
         <f>SUM(C27:C78)</f>
         <v>40</v>
       </c>

--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224208BC-EE1C-476C-834A-6429768CD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3A7D4-5D0C-49EE-9361-9CD5A01F5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,9 +417,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -760,7 +757,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +988,7 @@
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="9">
         <v>2</v>
       </c>
       <c r="C34" s="20">
@@ -1170,7 +1167,7 @@
       <c r="A58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>0</v>
       </c>
       <c r="C58" s="20">

--- a/TourPlanner_Checklist_Final.xlsx
+++ b/TourPlanner_Checklist_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E3A7D4-5D0C-49EE-9361-9CD5A01F5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748945D-C9E6-4105-8AC4-0F1FB7241D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,6 +1251,9 @@
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="B68" s="9">
+        <v>3</v>
+      </c>
       <c r="C68" s="20">
         <v>3</v>
       </c>
@@ -1259,6 +1262,9 @@
       <c r="A69" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="B69" s="9">
+        <v>1</v>
+      </c>
       <c r="C69" s="20">
         <v>1</v>
       </c>
@@ -1274,6 +1280,9 @@
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="B71" s="9">
+        <v>1</v>
+      </c>
       <c r="C71" s="20">
         <v>1</v>
       </c>
@@ -1282,6 +1291,9 @@
       <c r="A72" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
       <c r="C72" s="20">
         <v>1</v>
       </c>
@@ -1290,6 +1302,9 @@
       <c r="A73" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
       <c r="C73" s="20">
         <v>1</v>
       </c>
@@ -1298,6 +1313,9 @@
       <c r="A74" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B74" s="9">
+        <v>1</v>
+      </c>
       <c r="C74" s="20">
         <v>1</v>
       </c>
@@ -1306,6 +1324,9 @@
       <c r="A75" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B75" s="9">
+        <v>0.5</v>
+      </c>
       <c r="C75" s="20">
         <v>0.5</v>
       </c>
@@ -1314,6 +1335,9 @@
       <c r="A76" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="B76" s="9">
+        <v>0.5</v>
+      </c>
       <c r="C76" s="20">
         <v>0.5</v>
       </c>
@@ -1331,7 +1355,7 @@
       </c>
       <c r="B80" s="17">
         <f>IF(MIN(B9:B21)=1,SUM(B27:B78),0)</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C80" s="22">
         <f>SUM(C27:C78)</f>
